--- a/數據整理/BU_code.xlsx
+++ b/數據整理/BU_code.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="376">
   <si>
     <t>ACA-</t>
   </si>
@@ -879,17 +879,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NF S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NFC </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NFW </t>
-  </si>
-  <si>
     <t>Chip</t>
   </si>
   <si>
@@ -948,14 +937,6 @@
     <t>PFS1</t>
   </si>
   <si>
-    <t xml:space="preserve">TVS </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">WIP </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>WIP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1068,16 +1049,10 @@
     <t>泰連香港</t>
   </si>
   <si>
-    <t xml:space="preserve">TE </t>
-  </si>
-  <si>
     <t>Zebra</t>
   </si>
   <si>
     <t>LF.瑞侃</t>
-  </si>
-  <si>
-    <t>LF OEM</t>
   </si>
   <si>
     <t>天灣電子</t>
@@ -1167,8 +1142,81 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">WPC </t>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <t>NFC</t>
+  </si>
+  <si>
+    <t>NFW</t>
+  </si>
+  <si>
+    <t>TVS</t>
+  </si>
+  <si>
+    <t>WPC</t>
+  </si>
+  <si>
+    <t>LF OEM</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TNF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TNF </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMM0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TVL </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TVS </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WIP </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同方電子</t>
   </si>
 </sst>
 </file>
@@ -1608,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="A304" sqref="A304"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -1621,16 +1669,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1641,10 +1689,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1655,10 +1703,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1669,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1683,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1697,10 +1745,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1711,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1725,10 +1773,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1739,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1753,10 +1801,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1767,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1781,10 +1829,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1795,10 +1843,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1809,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1823,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1837,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1851,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1865,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1879,10 +1927,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1893,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1907,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1921,10 +1969,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1935,10 +1983,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1949,10 +1997,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1963,10 +2011,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1977,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1991,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2005,10 +2053,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2019,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2033,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2046,6 +2094,12 @@
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
@@ -3097,7 +3151,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>161</v>
@@ -3161,7 +3215,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>161</v>
@@ -3641,7 +3695,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>161</v>
@@ -3745,7 +3799,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>161</v>
@@ -3753,7 +3807,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>161</v>
@@ -3849,7 +3903,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>257</v>
@@ -3953,7 +4007,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>265</v>
@@ -3993,7 +4047,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>277</v>
@@ -4001,7 +4055,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>277</v>
@@ -4009,7 +4063,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>277</v>
@@ -4017,7 +4071,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="5" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>277</v>
@@ -4025,7 +4079,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="5" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>277</v>
@@ -4033,7 +4087,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="5" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>277</v>
@@ -4041,7 +4095,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>277</v>
@@ -4049,7 +4103,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>277</v>
@@ -4057,7 +4111,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>277</v>
@@ -4065,23 +4119,23 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>277</v>
@@ -4089,23 +4143,23 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>277</v>
@@ -4113,7 +4167,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>277</v>
@@ -4121,7 +4175,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>277</v>
@@ -4129,26 +4183,26 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4156,20 +4210,20 @@
         <v>185</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>277</v>
@@ -4177,58 +4231,130 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="5" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="5" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/數據整理/BU_code.xlsx
+++ b/數據整理/BU_code.xlsx
@@ -11,12 +11,12 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="381">
   <si>
     <t>ACA-</t>
   </si>
@@ -1218,12 +1218,32 @@
   <si>
     <t>同方電子</t>
   </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NFW </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WPC </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NFC </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1656,18 +1676,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
@@ -1681,7 +1701,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1715,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1709,7 +1729,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1723,7 +1743,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1737,7 +1757,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1751,7 +1771,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1785,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1793,7 +1813,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +1827,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1821,7 +1841,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +1855,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1849,7 +1869,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1883,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1877,7 +1897,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1891,7 +1911,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1905,7 +1925,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1919,7 +1939,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1933,7 +1953,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1947,7 +1967,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1961,7 +1981,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +1995,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1989,7 +2009,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -2003,7 +2023,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -2017,7 +2037,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -2031,7 +2051,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -2045,7 +2065,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -2059,7 +2079,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -2073,7 +2093,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -2087,7 +2107,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -2101,7 +2121,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -2109,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -2117,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -2125,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -2133,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -2141,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -2149,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -2157,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -2165,7 +2185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -2173,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -2181,7 +2201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -2189,7 +2209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -2197,7 +2217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -2205,7 +2225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -2213,7 +2233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -2221,7 +2241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -2229,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -2237,7 +2257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>54</v>
       </c>
@@ -2245,7 +2265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
@@ -2253,7 +2273,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
@@ -2261,7 +2281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
@@ -2269,7 +2289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
@@ -2285,7 +2305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
@@ -2293,7 +2313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
@@ -2301,7 +2321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
@@ -2309,7 +2329,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
@@ -2317,7 +2337,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
@@ -2325,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -2333,7 +2353,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -2341,7 +2361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
@@ -2349,7 +2369,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>68</v>
       </c>
@@ -2357,7 +2377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>69</v>
       </c>
@@ -2365,7 +2385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>70</v>
       </c>
@@ -2373,7 +2393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
@@ -2381,7 +2401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>72</v>
       </c>
@@ -2389,7 +2409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>73</v>
       </c>
@@ -2397,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
@@ -2405,7 +2425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
@@ -2413,7 +2433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
@@ -2421,7 +2441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>77</v>
       </c>
@@ -2429,7 +2449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
@@ -2437,7 +2457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
@@ -2445,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
@@ -2453,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
@@ -2461,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>82</v>
       </c>
@@ -2469,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>83</v>
       </c>
@@ -2477,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
@@ -2485,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
@@ -2493,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
@@ -2501,7 +2521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
@@ -2509,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>88</v>
       </c>
@@ -2517,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>89</v>
       </c>
@@ -2525,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
@@ -2533,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
@@ -2541,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -2549,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
@@ -2557,7 +2577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -2565,7 +2585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -2573,7 +2593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -2581,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>97</v>
       </c>
@@ -2589,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>98</v>
       </c>
@@ -2597,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>99</v>
       </c>
@@ -2605,7 +2625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>100</v>
       </c>
@@ -2613,7 +2633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>101</v>
       </c>
@@ -2621,7 +2641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>102</v>
       </c>
@@ -2629,7 +2649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>103</v>
       </c>
@@ -2637,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>104</v>
       </c>
@@ -2645,7 +2665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>105</v>
       </c>
@@ -2653,7 +2673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>106</v>
       </c>
@@ -2661,7 +2681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>107</v>
       </c>
@@ -2669,7 +2689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>108</v>
       </c>
@@ -2677,7 +2697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>109</v>
       </c>
@@ -2685,7 +2705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>110</v>
       </c>
@@ -2693,7 +2713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>111</v>
       </c>
@@ -2701,7 +2721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>112</v>
       </c>
@@ -2709,7 +2729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>113</v>
       </c>
@@ -2717,7 +2737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>114</v>
       </c>
@@ -2725,7 +2745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>115</v>
       </c>
@@ -2733,7 +2753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>116</v>
       </c>
@@ -2741,7 +2761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>117</v>
       </c>
@@ -2749,7 +2769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>118</v>
       </c>
@@ -2757,7 +2777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>119</v>
       </c>
@@ -2765,7 +2785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>120</v>
       </c>
@@ -2773,7 +2793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>121</v>
       </c>
@@ -2781,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>122</v>
       </c>
@@ -2789,7 +2809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>123</v>
       </c>
@@ -2797,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>124</v>
       </c>
@@ -2805,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>125</v>
       </c>
@@ -2813,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>126</v>
       </c>
@@ -2821,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>127</v>
       </c>
@@ -2829,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>128</v>
       </c>
@@ -2837,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>129</v>
       </c>
@@ -2845,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>130</v>
       </c>
@@ -2853,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>131</v>
       </c>
@@ -2861,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>132</v>
       </c>
@@ -2869,7 +2889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>133</v>
       </c>
@@ -2877,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
@@ -2885,7 +2905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
@@ -2893,7 +2913,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>136</v>
       </c>
@@ -2901,7 +2921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>137</v>
       </c>
@@ -2909,7 +2929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>138</v>
       </c>
@@ -2917,7 +2937,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>139</v>
       </c>
@@ -2925,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
@@ -2933,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>141</v>
       </c>
@@ -2941,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>142</v>
       </c>
@@ -2949,7 +2969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>143</v>
       </c>
@@ -2957,7 +2977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>144</v>
       </c>
@@ -2965,7 +2985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>145</v>
       </c>
@@ -2973,7 +2993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>147</v>
       </c>
@@ -2981,7 +3001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>148</v>
       </c>
@@ -2989,7 +3009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>149</v>
       </c>
@@ -2997,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>150</v>
       </c>
@@ -3005,7 +3025,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>151</v>
       </c>
@@ -3013,7 +3033,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>153</v>
       </c>
@@ -3021,7 +3041,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>154</v>
       </c>
@@ -3029,7 +3049,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>156</v>
       </c>
@@ -3037,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>157</v>
       </c>
@@ -3045,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>158</v>
       </c>
@@ -3053,7 +3073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>159</v>
       </c>
@@ -3061,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>160</v>
       </c>
@@ -3069,7 +3089,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>160</v>
       </c>
@@ -3077,7 +3097,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>162</v>
       </c>
@@ -3085,7 +3105,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>163</v>
       </c>
@@ -3093,7 +3113,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>165</v>
       </c>
@@ -3101,7 +3121,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>166</v>
       </c>
@@ -3109,7 +3129,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>167</v>
       </c>
@@ -3117,7 +3137,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>168</v>
       </c>
@@ -3125,7 +3145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>169</v>
       </c>
@@ -3133,7 +3153,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>169</v>
       </c>
@@ -3141,7 +3161,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>170</v>
       </c>
@@ -3149,7 +3169,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>336</v>
       </c>
@@ -3157,7 +3177,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>171</v>
       </c>
@@ -3165,7 +3185,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>172</v>
       </c>
@@ -3173,7 +3193,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>173</v>
       </c>
@@ -3181,7 +3201,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>174</v>
       </c>
@@ -3189,7 +3209,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>172</v>
       </c>
@@ -3197,7 +3217,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>175</v>
       </c>
@@ -3205,7 +3225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>176</v>
       </c>
@@ -3213,7 +3233,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>337</v>
       </c>
@@ -3221,7 +3241,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>177</v>
       </c>
@@ -3229,7 +3249,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>178</v>
       </c>
@@ -3237,7 +3257,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>179</v>
       </c>
@@ -3245,7 +3265,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>180</v>
       </c>
@@ -3253,7 +3273,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>181</v>
       </c>
@@ -3261,7 +3281,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>182</v>
       </c>
@@ -3269,7 +3289,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>184</v>
       </c>
@@ -3277,7 +3297,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>185</v>
       </c>
@@ -3285,7 +3305,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>186</v>
       </c>
@@ -3293,7 +3313,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>187</v>
       </c>
@@ -3301,7 +3321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>188</v>
       </c>
@@ -3309,7 +3329,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>189</v>
       </c>
@@ -3317,7 +3337,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>190</v>
       </c>
@@ -3325,7 +3345,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>191</v>
       </c>
@@ -3333,7 +3353,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>192</v>
       </c>
@@ -3341,7 +3361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>193</v>
       </c>
@@ -3349,7 +3369,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>194</v>
       </c>
@@ -3357,7 +3377,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>195</v>
       </c>
@@ -3365,7 +3385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>196</v>
       </c>
@@ -3373,7 +3393,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>197</v>
       </c>
@@ -3381,7 +3401,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>198</v>
       </c>
@@ -3389,7 +3409,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>198</v>
       </c>
@@ -3397,7 +3417,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>199</v>
       </c>
@@ -3405,7 +3425,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>200</v>
       </c>
@@ -3413,7 +3433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>201</v>
       </c>
@@ -3421,7 +3441,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>202</v>
       </c>
@@ -3429,7 +3449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>203</v>
       </c>
@@ -3437,7 +3457,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>204</v>
       </c>
@@ -3445,7 +3465,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>205</v>
       </c>
@@ -3453,7 +3473,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>206</v>
       </c>
@@ -3461,7 +3481,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>207</v>
       </c>
@@ -3469,7 +3489,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>208</v>
       </c>
@@ -3477,7 +3497,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>209</v>
       </c>
@@ -3485,7 +3505,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>210</v>
       </c>
@@ -3493,7 +3513,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>211</v>
       </c>
@@ -3501,7 +3521,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>212</v>
       </c>
@@ -3509,7 +3529,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>213</v>
       </c>
@@ -3517,7 +3537,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>214</v>
       </c>
@@ -3525,7 +3545,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>215</v>
       </c>
@@ -3533,7 +3553,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>216</v>
       </c>
@@ -3541,7 +3561,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>217</v>
       </c>
@@ -3549,7 +3569,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>218</v>
       </c>
@@ -3557,7 +3577,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>219</v>
       </c>
@@ -3565,7 +3585,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>220</v>
       </c>
@@ -3573,7 +3593,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>221</v>
       </c>
@@ -3581,7 +3601,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>222</v>
       </c>
@@ -3589,7 +3609,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>223</v>
       </c>
@@ -3597,7 +3617,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>224</v>
       </c>
@@ -3605,7 +3625,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>225</v>
       </c>
@@ -3613,7 +3633,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>226</v>
       </c>
@@ -3621,7 +3641,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>227</v>
       </c>
@@ -3629,7 +3649,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>228</v>
       </c>
@@ -3637,7 +3657,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>229</v>
       </c>
@@ -3645,7 +3665,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>230</v>
       </c>
@@ -3653,7 +3673,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>231</v>
       </c>
@@ -3661,7 +3681,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>232</v>
       </c>
@@ -3669,7 +3689,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>233</v>
       </c>
@@ -3677,7 +3697,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>234</v>
       </c>
@@ -3685,7 +3705,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>235</v>
       </c>
@@ -3693,7 +3713,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>338</v>
       </c>
@@ -3701,7 +3721,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>236</v>
       </c>
@@ -3709,7 +3729,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>237</v>
       </c>
@@ -3717,7 +3737,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>238</v>
       </c>
@@ -3725,7 +3745,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>239</v>
       </c>
@@ -3733,7 +3753,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>240</v>
       </c>
@@ -3741,7 +3761,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>241</v>
       </c>
@@ -3749,7 +3769,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>242</v>
       </c>
@@ -3757,7 +3777,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>243</v>
       </c>
@@ -3765,7 +3785,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>242</v>
       </c>
@@ -3773,7 +3793,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>244</v>
       </c>
@@ -3781,7 +3801,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>245</v>
       </c>
@@ -3789,7 +3809,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>246</v>
       </c>
@@ -3797,7 +3817,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>339</v>
       </c>
@@ -3805,7 +3825,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>340</v>
       </c>
@@ -3813,7 +3833,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>247</v>
       </c>
@@ -3821,7 +3841,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>248</v>
       </c>
@@ -3829,7 +3849,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>249</v>
       </c>
@@ -3837,7 +3857,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>250</v>
       </c>
@@ -3845,7 +3865,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>251</v>
       </c>
@@ -3853,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>252</v>
       </c>
@@ -3861,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>253</v>
       </c>
@@ -3869,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>253</v>
       </c>
@@ -3877,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>254</v>
       </c>
@@ -3885,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>255</v>
       </c>
@@ -3893,7 +3913,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>256</v>
       </c>
@@ -3901,7 +3921,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>341</v>
       </c>
@@ -3909,7 +3929,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>258</v>
       </c>
@@ -3917,7 +3937,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>259</v>
       </c>
@@ -3925,7 +3945,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>260</v>
       </c>
@@ -3933,7 +3953,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>261</v>
       </c>
@@ -3941,7 +3961,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>263</v>
       </c>
@@ -3949,7 +3969,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>264</v>
       </c>
@@ -3957,7 +3977,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>266</v>
       </c>
@@ -3965,7 +3985,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>268</v>
       </c>
@@ -3973,7 +3993,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>269</v>
       </c>
@@ -3981,7 +4001,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>270</v>
       </c>
@@ -3989,7 +4009,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>271</v>
       </c>
@@ -3997,7 +4017,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>272</v>
       </c>
@@ -4005,7 +4025,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>342</v>
       </c>
@@ -4013,7 +4033,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>273</v>
       </c>
@@ -4021,7 +4041,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>274</v>
       </c>
@@ -4029,7 +4049,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>275</v>
       </c>
@@ -4037,7 +4057,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>276</v>
       </c>
@@ -4045,7 +4065,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>343</v>
       </c>
@@ -4053,7 +4073,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>344</v>
       </c>
@@ -4061,7 +4081,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>345</v>
       </c>
@@ -4069,7 +4089,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>356</v>
       </c>
@@ -4077,7 +4097,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>357</v>
       </c>
@@ -4085,7 +4105,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>358</v>
       </c>
@@ -4093,7 +4113,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>278</v>
       </c>
@@ -4101,7 +4121,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>279</v>
       </c>
@@ -4109,7 +4129,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>346</v>
       </c>
@@ -4117,7 +4137,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>280</v>
       </c>
@@ -4125,7 +4145,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>282</v>
       </c>
@@ -4133,7 +4153,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>283</v>
       </c>
@@ -4141,7 +4161,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>284</v>
       </c>
@@ -4149,7 +4169,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>286</v>
       </c>
@@ -4157,7 +4177,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>288</v>
       </c>
@@ -4165,7 +4185,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>289</v>
       </c>
@@ -4173,7 +4193,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>290</v>
       </c>
@@ -4181,7 +4201,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>291</v>
       </c>
@@ -4189,7 +4209,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>292</v>
       </c>
@@ -4197,7 +4217,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>293</v>
       </c>
@@ -4205,7 +4225,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>185</v>
       </c>
@@ -4213,7 +4233,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>295</v>
       </c>
@@ -4221,7 +4241,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>347</v>
       </c>
@@ -4229,7 +4249,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>359</v>
       </c>
@@ -4237,7 +4257,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>49</v>
       </c>
@@ -4245,7 +4265,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>297</v>
       </c>
@@ -4253,7 +4273,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>348</v>
       </c>
@@ -4261,7 +4281,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>349</v>
       </c>
@@ -4269,7 +4289,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>360</v>
       </c>
@@ -4277,7 +4297,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>353</v>
       </c>
@@ -4285,7 +4305,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>362</v>
       </c>
@@ -4293,7 +4313,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>363</v>
       </c>
@@ -4301,7 +4321,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>364</v>
       </c>
@@ -4309,7 +4329,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>368</v>
       </c>
@@ -4317,7 +4337,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>367</v>
       </c>
@@ -4325,7 +4345,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>369</v>
       </c>
@@ -4333,7 +4353,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>371</v>
       </c>
@@ -4341,7 +4361,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>372</v>
       </c>
@@ -4349,12 +4369,44 @@
         <v>370</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4369,7 +4421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4382,7 +4434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
